--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="K32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+10000-Digital
+5000-Cash</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -590,8 +613,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
@@ -613,78 +636,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,27 +652,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,7 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -743,8 +681,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,12 +780,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -837,7 +860,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,25 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,30 +932,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,7 +944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +962,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,19 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,19 +1016,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,11 +1065,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,6 +1126,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1080,75 +1160,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,134 +1183,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,9 +1394,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1407,10 +1427,6 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1741,11 +1757,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1786,135 +1802,135 @@
       <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32">
+      <c r="J1" s="31">
         <v>44256</v>
       </c>
-      <c r="K1" s="32">
+      <c r="K1" s="31">
         <v>44257</v>
       </c>
-      <c r="L1" s="32">
+      <c r="L1" s="31">
         <v>44258</v>
       </c>
-      <c r="M1" s="32">
+      <c r="M1" s="31">
         <v>44259</v>
       </c>
-      <c r="N1" s="32">
+      <c r="N1" s="31">
         <v>44260</v>
       </c>
-      <c r="O1" s="32">
+      <c r="O1" s="31">
         <v>44261</v>
       </c>
-      <c r="P1" s="32">
+      <c r="P1" s="31">
         <v>44262</v>
       </c>
-      <c r="Q1" s="32">
+      <c r="Q1" s="31">
         <v>44263</v>
       </c>
-      <c r="R1" s="32">
+      <c r="R1" s="31">
         <v>44264</v>
       </c>
-      <c r="S1" s="32">
+      <c r="S1" s="31">
         <v>44265</v>
       </c>
-      <c r="T1" s="32">
+      <c r="T1" s="31">
         <v>44266</v>
       </c>
-      <c r="U1" s="32">
+      <c r="U1" s="31">
         <v>44267</v>
       </c>
-      <c r="V1" s="32">
+      <c r="V1" s="31">
         <v>44268</v>
       </c>
-      <c r="W1" s="32">
+      <c r="W1" s="31">
         <v>44269</v>
       </c>
-      <c r="X1" s="32">
+      <c r="X1" s="31">
         <v>44270</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="31">
         <v>44271</v>
       </c>
-      <c r="Z1" s="32">
+      <c r="Z1" s="31">
         <v>44272</v>
       </c>
-      <c r="AA1" s="32">
+      <c r="AA1" s="31">
         <v>44273</v>
       </c>
-      <c r="AB1" s="32">
+      <c r="AB1" s="31">
         <v>44274</v>
       </c>
-      <c r="AC1" s="32">
+      <c r="AC1" s="31">
         <v>44275</v>
       </c>
-      <c r="AD1" s="32">
+      <c r="AD1" s="31">
         <v>44276</v>
       </c>
-      <c r="AE1" s="32">
+      <c r="AE1" s="31">
         <v>44277</v>
       </c>
-      <c r="AF1" s="32">
+      <c r="AF1" s="31">
         <v>44278</v>
       </c>
-      <c r="AG1" s="32">
+      <c r="AG1" s="31">
         <v>44279</v>
       </c>
-      <c r="AH1" s="32">
+      <c r="AH1" s="31">
         <v>44280</v>
       </c>
-      <c r="AI1" s="32">
+      <c r="AI1" s="31">
         <v>44281</v>
       </c>
-      <c r="AJ1" s="32">
+      <c r="AJ1" s="31">
         <v>44282</v>
       </c>
-      <c r="AK1" s="32">
+      <c r="AK1" s="31">
         <v>44283</v>
       </c>
-      <c r="AL1" s="32">
+      <c r="AL1" s="31">
         <v>44284</v>
       </c>
-      <c r="AM1" s="32">
+      <c r="AM1" s="31">
         <v>44285</v>
       </c>
-      <c r="AN1" s="32">
+      <c r="AN1" s="31">
         <v>44286</v>
       </c>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:40">
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>120000</v>
-      </c>
-      <c r="I2" s="33">
+        <v>225000</v>
+      </c>
+      <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
         <v>0</v>
       </c>
@@ -1928,7 +1944,7 @@
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
@@ -2057,7 +2073,7 @@
         <f t="shared" ref="F3:F34" si="1">H3+I3</f>
         <v>15000</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G34" si="2">H3/1500</f>
         <v>10</v>
       </c>
@@ -2065,7 +2081,7 @@
         <f>SUM(J3:AN3)</f>
         <v>15000</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="11">
         <f>10*1500</f>
         <v>15000</v>
@@ -2085,7 +2101,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2093,7 +2109,7 @@
         <f t="shared" ref="H4:H35" si="3">SUM(J4:AN4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:9">
       <c r="A5" s="11">
@@ -2112,7 +2128,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2120,7 +2136,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:11">
       <c r="A6" s="11">
@@ -2139,7 +2155,7 @@
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2147,7 +2163,7 @@
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
       <c r="K6" s="11">
         <f>5*1500</f>
         <v>7500</v>
@@ -2170,7 +2186,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2178,7 +2194,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:11">
       <c r="A8" s="11">
@@ -2197,7 +2213,7 @@
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2205,7 +2221,7 @@
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="K8" s="11">
         <f>5*1500</f>
         <v>7500</v>
@@ -2225,7 +2241,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2233,7 +2249,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" s="11" customFormat="1" spans="1:11">
       <c r="A10" s="11">
@@ -2252,7 +2268,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2260,7 +2276,7 @@
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="K10" s="11">
         <f>10*1500</f>
         <v>15000</v>
@@ -2280,7 +2296,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2288,7 +2304,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:9">
       <c r="A12" s="11">
@@ -2304,7 +2320,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2312,7 +2328,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" s="11" customFormat="1" spans="1:11">
       <c r="A13" s="11">
@@ -2328,7 +2344,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2336,7 +2352,7 @@
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="33"/>
       <c r="K13" s="11">
         <f>10*1500</f>
         <v>15000</v>
@@ -2356,7 +2372,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2364,7 +2380,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:9">
       <c r="A15" s="11">
@@ -2383,7 +2399,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2391,7 +2407,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" s="11" customFormat="1" spans="1:9">
       <c r="A16" s="11">
@@ -2407,7 +2423,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2415,13 +2431,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:9">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -2434,7 +2450,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2442,13 +2458,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:28">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11">
@@ -2457,14 +2473,14 @@
       <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2472,26 +2488,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:11">
       <c r="A19" s="11">
@@ -2507,7 +2523,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2515,7 +2531,7 @@
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="33"/>
       <c r="K19" s="11">
         <f>10*1500</f>
         <v>15000</v>
@@ -2535,7 +2551,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2543,9 +2559,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" s="11" customFormat="1" spans="1:9">
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:12">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2557,17 +2573,21 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="34"/>
+        <v>1500</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="L21" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="22" s="11" customFormat="1" spans="1:9">
       <c r="A22" s="11">
@@ -2583,7 +2603,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2591,7 +2611,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:11">
       <c r="A23" s="11">
@@ -2607,7 +2627,7 @@
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2615,7 +2635,7 @@
         <f t="shared" si="3"/>
         <v>22500</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="33"/>
       <c r="K23" s="11">
         <f>15*1500</f>
         <v>22500</v>
@@ -2635,7 +2655,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2643,7 +2663,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:11">
       <c r="A25" s="11">
@@ -2659,7 +2679,7 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2667,13 +2687,13 @@
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="33"/>
       <c r="K25" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:9">
+    <row r="26" s="11" customFormat="1" spans="1:12">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2685,19 +2705,23 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
+        <v>6000</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:9">
+        <v>6000</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="L26" s="11">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:12">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2709,17 +2733,21 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
+        <v>7500</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="L27" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:9">
       <c r="A28" s="11">
@@ -2735,7 +2763,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2743,7 +2771,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" s="11" customFormat="1" spans="1:9">
       <c r="A29" s="11">
@@ -2759,7 +2787,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2767,7 +2795,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" s="11" customFormat="1" spans="1:9">
       <c r="A30" s="11">
@@ -2783,7 +2811,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2791,7 +2819,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" s="11" customFormat="1" spans="1:11">
       <c r="A31" s="11">
@@ -2807,7 +2835,7 @@
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -2815,13 +2843,13 @@
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="I31" s="34"/>
+      <c r="I31" s="33"/>
       <c r="K31" s="11">
         <f>3*1500</f>
         <v>4500</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:9">
+    <row r="32" s="11" customFormat="1" spans="1:12">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2833,17 +2861,21 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
+        <v>15000</v>
+      </c>
+      <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="34"/>
+        <v>15000</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="L32" s="11">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="1:11">
       <c r="A33" s="11">
@@ -2859,7 +2891,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2867,7 +2899,7 @@
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="33"/>
       <c r="K33" s="11">
         <f>10*1500</f>
         <v>15000</v>
@@ -2887,7 +2919,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2895,9 +2927,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:9">
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:12">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -2909,17 +2941,21 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" ref="F35:F66" si="4">H35+I35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="26">
+        <v>7500</v>
+      </c>
+      <c r="G35" s="10">
         <f t="shared" ref="G35:G66" si="5">H35/1500</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="L35" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="36" s="11" customFormat="1" spans="1:9">
       <c r="A36" s="11">
@@ -2935,7 +2971,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2943,7 +2979,7 @@
         <f t="shared" ref="H36:H67" si="6">SUM(J36:AN36)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:9">
       <c r="A37" s="11">
@@ -2959,7 +2995,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2967,7 +3003,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I37" s="34"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:9">
       <c r="A38" s="11">
@@ -2983,7 +3019,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2991,9 +3027,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" s="11" customFormat="1" spans="1:9">
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:12">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -3005,17 +3041,21 @@
       </c>
       <c r="F39" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="26">
+        <v>7500</v>
+      </c>
+      <c r="G39" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="L39" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:9">
       <c r="A40" s="11">
@@ -3034,7 +3074,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3042,7 +3082,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:9">
       <c r="A41" s="11">
@@ -3058,7 +3098,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3066,9 +3106,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" s="11" customFormat="1" spans="1:9">
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" s="11" customFormat="1" spans="1:12">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3080,17 +3120,21 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="34"/>
+        <v>3000</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="L42" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:9">
       <c r="A43" s="11">
@@ -3106,7 +3150,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3114,7 +3158,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:9">
       <c r="A44" s="11">
@@ -3130,7 +3174,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3138,9 +3182,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:9">
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:12">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3152,19 +3196,23 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" s="11" customFormat="1" spans="1:9">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="L45" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:12">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3176,19 +3224,23 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="26">
+        <v>15000</v>
+      </c>
+      <c r="G46" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:9">
+        <v>15000</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="L46" s="11">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:12">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3200,17 +3252,21 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="34"/>
+        <v>3000</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="L47" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:9">
       <c r="A48" s="11">
@@ -3226,7 +3282,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3234,9 +3290,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" s="11" customFormat="1" spans="1:9">
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:12">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3248,17 +3304,21 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="34"/>
+        <v>3000</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="L49" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:9">
       <c r="A50" s="11">
@@ -3274,7 +3334,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3282,9 +3342,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:9">
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:12">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -3296,17 +3356,21 @@
       </c>
       <c r="F51" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="26">
+        <v>7500</v>
+      </c>
+      <c r="G51" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="L51" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:9">
       <c r="A52" s="11">
@@ -3322,7 +3386,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3330,9 +3394,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" s="11" customFormat="1" spans="1:9">
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" s="11" customFormat="1" spans="1:12">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3344,17 +3408,21 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="34"/>
+        <v>3000</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="L53" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:9">
       <c r="A54" s="11">
@@ -3370,7 +3438,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3378,49 +3446,53 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I54" s="34"/>
-    </row>
-    <row r="55" s="11" customFormat="1" spans="1:9">
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" s="11" customFormat="1" spans="1:12">
       <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="D55" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="28" t="s">
         <v>75</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="26">
+        <v>4500</v>
+      </c>
+      <c r="G55" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="34"/>
+        <v>4500</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="L55" s="11">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:9">
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="D56" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="28" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3428,24 +3500,24 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="33"/>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:9">
       <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="D57" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>77</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3453,9 +3525,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I57" s="34"/>
-    </row>
-    <row r="58" s="11" customFormat="1" spans="1:9">
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" s="11" customFormat="1" spans="1:12">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -3467,19 +3539,23 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="34"/>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:9">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="L58" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:12">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -3491,19 +3567,23 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="34"/>
-    </row>
-    <row r="60" s="11" customFormat="1" spans="1:9">
+        <v>3000</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="L59" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="1" spans="1:12">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -3515,17 +3595,21 @@
       </c>
       <c r="F60" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="26">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="34"/>
+        <v>3000</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="L60" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="61" s="11" customFormat="1" spans="1:9">
       <c r="A61" s="11">
@@ -3541,7 +3625,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3549,24 +3633,24 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I61" s="34"/>
+      <c r="I61" s="33"/>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:9">
       <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="D62" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="28" t="s">
         <v>84</v>
       </c>
       <c r="F62" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3574,24 +3658,24 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="33"/>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:9">
       <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="D63" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="28" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3599,13 +3683,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I63" s="34"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="64" s="11" customFormat="1" spans="1:9">
       <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -3618,7 +3702,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3626,7 +3710,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
     </row>
     <row r="65" s="11" customFormat="1" spans="1:9">
       <c r="A65" s="11">
@@ -3645,7 +3729,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G65" s="26">
+      <c r="G65" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3659,18 +3743,18 @@
       <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="D66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="28" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3678,24 +3762,24 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="33"/>
     </row>
     <row r="67" s="11" customFormat="1" spans="1:9">
       <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="D67" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>92</v>
       </c>
       <c r="F67" s="10">
         <f t="shared" ref="F67:F96" si="7">H67+I67</f>
         <v>0</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="10">
         <f t="shared" ref="G67:G96" si="8">H67/1500</f>
         <v>0</v>
       </c>
@@ -3703,7 +3787,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:9">
       <c r="A68" s="11">
@@ -3719,7 +3803,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G68" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3727,7 +3811,7 @@
         <f t="shared" ref="H68:H96" si="9">SUM(J68:AN68)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="34"/>
+      <c r="I68" s="33"/>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:9">
       <c r="A69" s="11">
@@ -3743,7 +3827,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G69" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3751,7 +3835,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I69" s="34"/>
+      <c r="I69" s="33"/>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:9">
       <c r="A70" s="11">
@@ -3767,7 +3851,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3775,7 +3859,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I70" s="34"/>
+      <c r="I70" s="33"/>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:9">
       <c r="A71" s="11">
@@ -3791,7 +3875,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3799,7 +3883,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I71" s="34"/>
+      <c r="I71" s="33"/>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:9">
       <c r="A72" s="11">
@@ -3815,7 +3899,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3823,9 +3907,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I72" s="34"/>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:9">
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:12">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -3837,34 +3921,38 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="26">
+        <v>1500</v>
+      </c>
+      <c r="G73" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="34"/>
+        <v>1500</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="L73" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:9">
       <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
       <c r="D74" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="28" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3872,7 +3960,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I74" s="34"/>
+      <c r="I74" s="33"/>
     </row>
     <row r="75" s="11" customFormat="1" spans="1:9">
       <c r="A75" s="11">
@@ -3891,7 +3979,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3899,24 +3987,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I75" s="34"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" s="11" customFormat="1" spans="1:9">
       <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
       <c r="D76" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="28" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G76" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3924,7 +4012,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="33"/>
     </row>
     <row r="77" s="11" customFormat="1" spans="1:9">
       <c r="A77" s="11">
@@ -3940,7 +4028,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3948,9 +4036,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I77" s="34"/>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:9">
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:12">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -3962,17 +4050,21 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="26">
+        <v>7500</v>
+      </c>
+      <c r="G78" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="34"/>
+        <v>7500</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="L78" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="79" s="11" customFormat="1" spans="1:9">
       <c r="A79" s="11">
@@ -3988,7 +4080,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G79" s="26">
+      <c r="G79" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3996,21 +4088,21 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I79" s="34"/>
+      <c r="I79" s="33"/>
     </row>
     <row r="80" s="11" customFormat="1" spans="1:26">
       <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="E80" s="29" t="s">
+      <c r="B80" s="29"/>
+      <c r="E80" s="28" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G80" s="26">
+      <c r="G80" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4018,40 +4110,40 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
     </row>
     <row r="81" s="11" customFormat="1" spans="1:9">
       <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
       <c r="D81" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="28" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4059,21 +4151,21 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I81" s="34"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" s="11" customFormat="1" spans="1:9">
       <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="E82" s="29" t="s">
+      <c r="B82" s="29"/>
+      <c r="E82" s="28" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4081,24 +4173,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I82" s="34"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" s="11" customFormat="1" spans="1:9">
       <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
       <c r="D83" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4106,21 +4198,21 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I83" s="34"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="84" s="11" customFormat="1" spans="1:21">
       <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="E84" s="29" t="s">
+      <c r="B84" s="29"/>
+      <c r="E84" s="28" t="s">
         <v>113</v>
       </c>
       <c r="F84" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4128,36 +4220,36 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
     </row>
     <row r="85" s="11" customFormat="1" spans="1:9">
       <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
       <c r="D85" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="28" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4165,7 +4257,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I85" s="34"/>
+      <c r="I85" s="33"/>
     </row>
     <row r="86" s="11" customFormat="1" spans="1:9">
       <c r="A86" s="11">
@@ -4181,7 +4273,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4189,27 +4281,27 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I86" s="34"/>
+      <c r="I86" s="33"/>
     </row>
     <row r="87" s="11" customFormat="1" spans="1:9">
       <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="11">
         <v>683879115</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F87" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4217,24 +4309,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I87" s="34"/>
+      <c r="I87" s="33"/>
     </row>
     <row r="88" s="11" customFormat="1" spans="1:27">
       <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
       <c r="D88" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G88" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4242,39 +4334,39 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="30"/>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
     </row>
     <row r="89" s="11" customFormat="1" spans="1:9">
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="E89" s="29" t="s">
+      <c r="B89" s="29"/>
+      <c r="E89" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G89" s="26">
+      <c r="G89" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4282,21 +4374,21 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I89" s="34"/>
+      <c r="I89" s="33"/>
     </row>
     <row r="90" s="11" customFormat="1" spans="1:20">
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="E90" s="29" t="s">
+      <c r="B90" s="29"/>
+      <c r="E90" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F90" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4304,32 +4396,32 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I90" s="34"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="35"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="34"/>
     </row>
     <row r="91" s="11" customFormat="1" spans="1:25">
       <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="E91" s="29" t="s">
+      <c r="B91" s="29"/>
+      <c r="E91" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F91" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G91" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4337,23 +4429,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I91" s="34"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="34"/>
+      <c r="U91" s="34"/>
+      <c r="V91" s="34"/>
+      <c r="W91" s="34"/>
+      <c r="X91" s="34"/>
+      <c r="Y91" s="34"/>
     </row>
     <row r="92" s="11" customFormat="1" spans="1:9">
       <c r="A92" s="11">
@@ -4366,7 +4458,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G92" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4374,7 +4466,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I92" s="34"/>
+      <c r="I92" s="33"/>
     </row>
     <row r="93" s="11" customFormat="1" spans="1:9">
       <c r="A93" s="11">
@@ -4387,7 +4479,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4395,7 +4487,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I93" s="34"/>
+      <c r="I93" s="33"/>
     </row>
     <row r="94" s="11" customFormat="1" spans="1:9">
       <c r="A94" s="11">
@@ -4411,7 +4503,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4419,7 +4511,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I94" s="34"/>
+      <c r="I94" s="33"/>
     </row>
     <row r="95" s="11" customFormat="1" spans="1:9">
       <c r="A95" s="11">
@@ -4432,7 +4524,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4440,7 +4532,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I95" s="34"/>
+      <c r="I95" s="33"/>
     </row>
     <row r="96" s="11" customFormat="1" spans="1:9">
       <c r="A96" s="11">
@@ -4453,7 +4545,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G96" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4461,50 +4553,39 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" s="11" customFormat="1" spans="7:9">
-      <c r="G97" s="37"/>
+      <c r="I96" s="33"/>
+    </row>
+    <row r="97" s="11" customFormat="1" spans="9:9">
       <c r="I97" s="22"/>
     </row>
-    <row r="98" s="11" customFormat="1" spans="7:9">
-      <c r="G98" s="37"/>
+    <row r="98" s="11" customFormat="1" spans="9:9">
       <c r="I98" s="22"/>
     </row>
-    <row r="99" s="11" customFormat="1" spans="7:9">
-      <c r="G99" s="37"/>
+    <row r="99" s="11" customFormat="1" spans="9:9">
       <c r="I99" s="22"/>
     </row>
-    <row r="100" s="11" customFormat="1" spans="7:9">
-      <c r="G100" s="37"/>
+    <row r="100" s="11" customFormat="1" spans="9:9">
       <c r="I100" s="22"/>
     </row>
-    <row r="101" s="11" customFormat="1" spans="7:9">
-      <c r="G101" s="37"/>
+    <row r="101" s="11" customFormat="1" spans="9:9">
       <c r="I101" s="22"/>
     </row>
-    <row r="102" s="11" customFormat="1" spans="7:9">
-      <c r="G102" s="37"/>
+    <row r="102" s="11" customFormat="1" spans="9:9">
       <c r="I102" s="22"/>
     </row>
-    <row r="103" s="11" customFormat="1" spans="7:9">
-      <c r="G103" s="37"/>
+    <row r="103" s="11" customFormat="1" spans="9:9">
       <c r="I103" s="22"/>
     </row>
-    <row r="104" s="11" customFormat="1" spans="7:9">
-      <c r="G104" s="37"/>
+    <row r="104" s="11" customFormat="1" spans="9:9">
       <c r="I104" s="22"/>
     </row>
-    <row r="105" s="11" customFormat="1" spans="7:9">
-      <c r="G105" s="37"/>
+    <row r="105" s="11" customFormat="1" spans="9:9">
       <c r="I105" s="22"/>
     </row>
-    <row r="106" s="11" customFormat="1" spans="7:9">
-      <c r="G106" s="37"/>
+    <row r="106" s="11" customFormat="1" spans="9:9">
       <c r="I106" s="22"/>
     </row>
-    <row r="107" s="11" customFormat="1" spans="7:9">
-      <c r="G107" s="37"/>
+    <row r="107" s="11" customFormat="1" spans="9:9">
       <c r="I107" s="22"/>
     </row>
     <row r="108" s="11" customFormat="1" spans="9:9">
@@ -4539,12 +4620,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4559,7 +4640,8 @@
     <col min="8" max="8" width="8.57142857142857" style="11" customWidth="1"/>
     <col min="9" max="9" width="6.14285714285714" style="11" customWidth="1"/>
     <col min="10" max="10" width="6.57142857142857" style="11" customWidth="1"/>
-    <col min="11" max="17" width="6.14285714285714" style="11" customWidth="1"/>
+    <col min="11" max="11" width="7.57142857142857" style="11" customWidth="1"/>
+    <col min="12" max="17" width="6.14285714285714" style="11" customWidth="1"/>
     <col min="18" max="39" width="7.14285714285714" style="11" customWidth="1"/>
     <col min="40" max="16384" width="9.14285714285714" style="11"/>
   </cols>
@@ -4691,14 +4773,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>90000</v>
+        <v>194500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>90000</v>
+        <v>194500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4710,7 +4792,7 @@
       </c>
       <c r="K2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104500</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
@@ -5311,7 +5393,10 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1500</v>
       </c>
       <c r="AB21" s="21"/>
     </row>
@@ -5445,7 +5530,10 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="K26" s="19">
+        <v>6000</v>
       </c>
       <c r="AB26" s="21"/>
     </row>
@@ -5586,7 +5674,10 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="K32" s="19">
+        <v>15000</v>
       </c>
       <c r="AB32" s="21"/>
     </row>
@@ -5605,7 +5696,10 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="K33" s="11">
+        <v>15000</v>
       </c>
       <c r="AB33" s="21"/>
     </row>
@@ -5649,7 +5743,10 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="K35" s="11">
+        <v>7500</v>
       </c>
       <c r="AB35" s="21"/>
     </row>
@@ -5734,7 +5831,10 @@
       </c>
       <c r="H39" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="K39" s="19">
+        <v>7500</v>
       </c>
       <c r="AB39" s="21"/>
     </row>
@@ -5800,7 +5900,10 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K42" s="11">
+        <v>3000</v>
       </c>
       <c r="AB42" s="21"/>
     </row>
@@ -5860,7 +5963,10 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K45" s="11">
+        <v>3000</v>
       </c>
       <c r="AB45" s="21"/>
     </row>
@@ -5885,7 +5991,10 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="K46" s="11">
+        <v>10000</v>
       </c>
       <c r="AB46" s="21"/>
     </row>
@@ -5904,7 +6013,10 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K47" s="11">
+        <v>3000</v>
       </c>
       <c r="AB47" s="21"/>
     </row>
@@ -5957,7 +6069,10 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K49" s="11">
+        <v>3000</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -6010,7 +6125,10 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="K51" s="19">
+        <v>7500</v>
       </c>
       <c r="AB51" s="21"/>
     </row>
@@ -6054,7 +6172,10 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K53" s="11">
+        <v>3000</v>
       </c>
       <c r="AB53" s="21"/>
     </row>
@@ -6098,7 +6219,10 @@
       </c>
       <c r="H55" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="K55" s="11">
+        <v>4500</v>
       </c>
       <c r="AB55" s="21"/>
     </row>
@@ -6167,7 +6291,10 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K58" s="11">
+        <v>3000</v>
       </c>
       <c r="AB58" s="21"/>
     </row>
@@ -6211,7 +6338,10 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K60" s="11">
+        <v>3000</v>
       </c>
       <c r="AB60" s="21"/>
     </row>
@@ -6494,7 +6624,10 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="K73" s="11">
+        <v>1500</v>
       </c>
       <c r="AB73" s="21"/>
     </row>
@@ -6616,7 +6749,10 @@
       </c>
       <c r="H78" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="K78" s="11">
+        <v>7500</v>
       </c>
       <c r="AB78" s="21"/>
     </row>
@@ -7037,8 +7173,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7074,7 +7210,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>30000</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7445,7 +7581,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7527,13 +7663,15 @@
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7">
+        <v>7488143097</v>
+      </c>
       <c r="C33" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7724,7 +7862,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7913,7 +8051,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8424,9 +8562,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -70,6 +70,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="M46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+4000-Digital
+1000-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+4300-Digital
+200-Cash</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -613,10 +659,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -636,24 +682,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,99 +692,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,18 +712,126 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -860,19 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,25 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +954,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,49 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,25 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,18 +1075,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,11 +1109,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,17 +1144,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,51 +1183,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1165,13 +1211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,130 +1229,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,11 +1803,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1909,26 +1955,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>225000</v>
+        <v>250500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>225000</v>
+        <v>250500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>225000</v>
+        <v>250500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>225000</v>
+        <v>250500</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -1948,11 +1994,11 @@
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
@@ -2138,7 +2184,7 @@
       </c>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:11">
+    <row r="6" s="11" customFormat="1" spans="1:13">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2153,20 +2199,24 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="I6" s="33"/>
       <c r="K6" s="11">
         <f>5*1500</f>
         <v>7500</v>
+      </c>
+      <c r="M6" s="11">
+        <f>4*1500</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" s="11" customFormat="1" spans="1:9">
@@ -2537,7 +2587,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:9">
+    <row r="20" s="11" customFormat="1" spans="1:14">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2549,17 +2599,21 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="33"/>
+      <c r="N20" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="1:12">
       <c r="A21" s="11">
@@ -3292,7 +3346,7 @@
       </c>
       <c r="I48" s="33"/>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:12">
+    <row r="49" s="11" customFormat="1" spans="1:14">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3304,21 +3358,25 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="I49" s="33"/>
       <c r="L49" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
+      <c r="N49" s="11">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:9">
       <c r="A50" s="11">
@@ -3372,7 +3430,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="52" s="11" customFormat="1" spans="1:9">
+    <row r="52" s="11" customFormat="1" spans="1:14">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -3384,17 +3442,21 @@
       </c>
       <c r="F52" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="33"/>
+      <c r="N52" s="11">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:12">
       <c r="A53" s="11">
@@ -3885,7 +3947,7 @@
       </c>
       <c r="I71" s="33"/>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:9">
+    <row r="72" s="11" customFormat="1" spans="1:14">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -3897,17 +3959,21 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I72" s="33"/>
+      <c r="N72" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:12">
       <c r="A73" s="11">
@@ -4625,7 +4691,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4773,14 +4839,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>194500</v>
+        <v>222000</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>194500</v>
+        <v>222000</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4796,11 +4862,11 @@
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
@@ -5012,10 +5078,13 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="J6" s="11">
         <v>7500</v>
+      </c>
+      <c r="L6" s="11">
+        <v>6000</v>
       </c>
       <c r="AB6" s="21"/>
     </row>
@@ -5991,10 +6060,13 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K46" s="11">
         <v>10000</v>
+      </c>
+      <c r="M46" s="19">
+        <v>5000</v>
       </c>
       <c r="AB46" s="21"/>
     </row>
@@ -6069,10 +6141,13 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="K49" s="11">
         <v>3000</v>
+      </c>
+      <c r="M49" s="19">
+        <v>4500</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -6147,7 +6222,10 @@
       </c>
       <c r="H52" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="M52" s="11">
+        <v>4500</v>
       </c>
       <c r="AB52" s="21"/>
     </row>
@@ -6605,7 +6683,10 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="M72" s="11">
+        <v>7500</v>
       </c>
       <c r="AB72" s="21"/>
     </row>
@@ -7174,7 +7255,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D59" sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7210,7 +7291,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>30500</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7476,7 +7557,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7862,7 +7943,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8562,6 +8643,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D96">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -659,11 +659,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -682,16 +682,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,60 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,8 +718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,17 +728,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,7 +750,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -820,18 +766,72 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -906,7 +906,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +948,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,12 +1020,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -990,7 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,73 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,20 +1126,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,15 +1170,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,17 +1198,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,13 +1211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,40 +1229,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1271,88 +1271,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1803,11 +1803,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1955,26 +1955,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>250500</v>
+        <v>256500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>250500</v>
+        <v>256500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>250500</v>
+        <v>256500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>250500</v>
+        <v>256500</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
@@ -2332,7 +2332,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:9">
+    <row r="11" s="11" customFormat="1" spans="1:15">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2344,17 +2344,21 @@
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I11" s="33"/>
+      <c r="O11" s="11">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:9">
       <c r="A12" s="11">
@@ -4687,11 +4691,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomRight" activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4839,14 +4843,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>222000</v>
+        <v>226000</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>222000</v>
+        <v>226000</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4870,7 +4874,7 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
@@ -5212,7 +5216,10 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4000</v>
       </c>
       <c r="AB11" s="21"/>
     </row>
@@ -7291,7 +7298,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>28500</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7426,7 +7433,7 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -659,11 +659,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -682,8 +682,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,22 +697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -726,26 +721,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,37 +747,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,9 +767,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,12 +826,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -906,7 +906,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,49 +1026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,109 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,25 +1109,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1150,11 +1137,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,21 +1185,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,7 +1211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,130 +1229,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7262,7 +7262,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="A1:D59"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -116,6 +116,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="P80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1650- Guddu sold 1 phone</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -660,10 +682,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -684,9 +706,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,7 +721,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +788,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,6 +804,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,45 +833,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -791,36 +843,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +940,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,19 +1030,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,31 +1066,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,85 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,11 +1133,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,30 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1173,51 +1228,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,130 +1251,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1458,7 +1480,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1471,7 +1493,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,11 +1825,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="M79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1955,26 +1977,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>256500</v>
+        <v>262500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>256500</v>
+        <v>262500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>256500</v>
+        <v>262500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>256500</v>
+        <v>262500</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2010,7 +2032,7 @@
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
@@ -3194,7 +3216,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:9">
+    <row r="43" s="11" customFormat="1" spans="1:17">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3206,17 +3228,21 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I43" s="33"/>
+      <c r="Q43" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:9">
       <c r="A44" s="11">
@@ -3677,7 +3703,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="61" s="11" customFormat="1" spans="1:9">
+    <row r="61" s="11" customFormat="1" spans="1:17">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -3689,17 +3715,21 @@
       </c>
       <c r="F61" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I61" s="33"/>
+      <c r="Q61" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:9">
       <c r="A62" s="11">
@@ -4170,15 +4200,15 @@
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="29"/>
@@ -4188,7 +4218,10 @@
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
       <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
+      <c r="Q80" s="29">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
       <c r="T80" s="29"/>
@@ -4691,11 +4724,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N89" sqref="N89"/>
+      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4843,14 +4876,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>226000</v>
+        <v>230500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>226000</v>
+        <v>230500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4882,7 +4915,7 @@
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
@@ -6445,7 +6478,10 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="P61" s="19">
+        <v>3000</v>
       </c>
       <c r="AB61" s="21"/>
     </row>
@@ -6881,7 +6917,10 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="P80" s="11">
+        <v>1500</v>
       </c>
       <c r="AB80" s="21"/>
     </row>
@@ -7262,7 +7301,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D59" sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7298,7 +7337,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>30500</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7907,7 +7946,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44" spans="1:4">

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -138,6 +138,74 @@
         </r>
       </text>
     </comment>
+    <comment ref="R80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3300- Sold 2 mobile by Guddu 2*1650</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1650- Sold 1 mobile by guddu
+3000- Sold 2 mobile by vijay to FOS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+800-Cash
+2200-Digital</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -682,10 +750,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -704,68 +772,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,6 +787,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -788,7 +833,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,31 +854,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,6 +873,44 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,19 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +1008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,25 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,31 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,31 +1086,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1140,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1203,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,17 +1225,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1179,7 +1236,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,6 +1257,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1213,33 +1296,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,130 +1319,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1480,7 +1548,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1493,7 +1561,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,11 +1893,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="S78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q80" sqref="Q80"/>
+      <selection pane="bottomRight" activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1977,26 +2045,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>262500</v>
+        <v>282000</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>262500</v>
+        <v>282000</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>262500</v>
+        <v>282000</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>262500</v>
+        <v>282000</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2036,15 +2104,15 @@
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
@@ -2052,7 +2120,7 @@
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
@@ -2985,7 +3053,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:9">
+    <row r="34" s="11" customFormat="1" spans="1:18">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2997,17 +3065,21 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="33"/>
+      <c r="R34" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="35" s="11" customFormat="1" spans="1:12">
       <c r="A35" s="11">
@@ -3933,7 +4005,7 @@
       </c>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" s="11" customFormat="1" spans="1:9">
+    <row r="70" s="11" customFormat="1" spans="1:18">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -3945,17 +4017,21 @@
       </c>
       <c r="F70" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I70" s="33"/>
+      <c r="R70" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:9">
       <c r="A71" s="11">
@@ -4009,7 +4085,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="73" s="11" customFormat="1" spans="1:12">
+    <row r="73" s="11" customFormat="1" spans="1:18">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -4021,21 +4097,25 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="I73" s="33"/>
       <c r="L73" s="11">
         <f>1*1500</f>
         <v>1500</v>
       </c>
+      <c r="R73" s="11">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:9">
       <c r="A74" s="11">
@@ -4200,15 +4280,15 @@
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="29"/>
@@ -4223,8 +4303,14 @@
         <v>1500</v>
       </c>
       <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
+      <c r="S80" s="29">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+      <c r="T80" s="29">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="U80" s="29"/>
       <c r="W80" s="34"/>
       <c r="X80" s="29"/>
@@ -4427,15 +4513,15 @@
       </c>
       <c r="F88" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G88" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="34"/>
@@ -4450,7 +4536,10 @@
       <c r="S88" s="34"/>
       <c r="T88" s="34"/>
       <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
+      <c r="V88" s="29">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="W88" s="34"/>
       <c r="X88" s="29"/>
       <c r="Y88" s="34"/>
@@ -4724,11 +4813,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="P87" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomRight" activeCell="T103" sqref="T103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4876,14 +4965,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>230500</v>
+        <v>254500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>230500</v>
+        <v>254500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4919,15 +5008,15 @@
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
@@ -4935,7 +5024,7 @@
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
@@ -5474,7 +5563,10 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="R20" s="19">
+        <v>3000</v>
       </c>
       <c r="AB20" s="21"/>
     </row>
@@ -5833,7 +5925,10 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>3000</v>
       </c>
       <c r="AB34" s="21"/>
     </row>
@@ -6034,7 +6129,10 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>1500</v>
       </c>
       <c r="AB43" s="21"/>
     </row>
@@ -6688,7 +6786,10 @@
       </c>
       <c r="H70" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>1500</v>
       </c>
       <c r="AB70" s="21"/>
     </row>
@@ -6748,10 +6849,13 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K73" s="11">
         <v>1500</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>4500</v>
       </c>
       <c r="AB73" s="21"/>
     </row>
@@ -6917,10 +7021,16 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="P80" s="11">
         <v>1500</v>
+      </c>
+      <c r="R80" s="11">
+        <v>3000</v>
+      </c>
+      <c r="S80" s="11">
+        <v>4500</v>
       </c>
       <c r="AB80" s="21"/>
     </row>
@@ -7093,7 +7203,10 @@
       </c>
       <c r="H88" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="U88" s="19">
+        <v>3000</v>
       </c>
       <c r="AB88" s="21"/>
     </row>
@@ -7337,7 +7450,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>32000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7603,7 +7716,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7946,7 +8059,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,38 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="AE27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+4 Mobile Return</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vijay</author>
@@ -67,6 +99,29 @@
           <t xml:space="preserve">
 10000-Digital
 5000-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500-Cash
+1500-Digital</t>
         </r>
       </text>
     </comment>
@@ -183,6 +238,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="X80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500- Sold 1 mobile to FOS from s shop
+1500-Sold 1 mobile to FOS by Guddu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Sold to Dhaba beside School by Vijay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Sold 1 mobile to FOS from s shop </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U88" authorId="0">
       <text>
         <r>
@@ -750,10 +872,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -773,7 +895,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,28 +962,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -826,6 +978,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -833,54 +993,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,10 +1014,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,8 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,7 +1118,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,96 +1262,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1116,55 +1274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,30 +1324,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1236,7 +1334,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1350,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1390,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1301,13 +1423,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,130 +1441,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,11 +2015,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="S78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AD24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V88" sqref="V88"/>
+      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2045,26 +2167,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>282000</v>
+        <v>306000</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>282000</v>
+        <v>306000</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>282000</v>
+        <v>306000</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>282000</v>
+        <v>306000</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2132,19 +2254,19 @@
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AB2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AC2" s="10">
         <f t="shared" si="0"/>
@@ -2156,7 +2278,7 @@
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="0"/>
@@ -2391,7 +2513,7 @@
       </c>
       <c r="I9" s="33"/>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:11">
+    <row r="10" s="11" customFormat="1" spans="1:28">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2406,20 +2528,24 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="I10" s="33"/>
       <c r="K10" s="11">
         <f>10*1500</f>
         <v>15000</v>
+      </c>
+      <c r="AB10" s="11">
+        <f>5*1500</f>
+        <v>7500</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="1:15">
@@ -2869,7 +2995,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:12">
+    <row r="27" s="11" customFormat="1" spans="1:31">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2881,21 +3007,25 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="I27" s="33"/>
       <c r="L27" s="11">
         <f>5*1500</f>
         <v>7500</v>
       </c>
+      <c r="AE27" s="11">
+        <f>-4*1500</f>
+        <v>-6000</v>
+      </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:9">
       <c r="A28" s="11">
@@ -3133,7 +3263,7 @@
       </c>
       <c r="I36" s="33"/>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:9">
+    <row r="37" s="11" customFormat="1" spans="1:31">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3145,17 +3275,21 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I37" s="33"/>
+      <c r="AE37" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:9">
       <c r="A38" s="11">
@@ -3480,7 +3614,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="50" s="11" customFormat="1" spans="1:9">
+    <row r="50" s="11" customFormat="1" spans="1:28">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3492,17 +3626,21 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I50" s="33"/>
+      <c r="AB50" s="11">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:12">
       <c r="A51" s="11">
@@ -3803,7 +3941,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:9">
+    <row r="62" s="11" customFormat="1" spans="1:26">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -3816,17 +3954,21 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="33"/>
+      <c r="Z62" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:9">
       <c r="A63" s="11">
@@ -3853,7 +3995,7 @@
       </c>
       <c r="I63" s="33"/>
     </row>
-    <row r="64" s="11" customFormat="1" spans="1:9">
+    <row r="64" s="11" customFormat="1" spans="1:26">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -3868,17 +4010,21 @@
       </c>
       <c r="F64" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G64" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I64" s="33"/>
+      <c r="Z64" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="65" s="11" customFormat="1" spans="1:9">
       <c r="A65" s="11">
@@ -4270,7 +4416,7 @@
       </c>
       <c r="I79" s="33"/>
     </row>
-    <row r="80" s="11" customFormat="1" spans="1:26">
+    <row r="80" s="11" customFormat="1" spans="1:27">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -4280,15 +4426,15 @@
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="9"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="29"/>
@@ -4314,8 +4460,18 @@
       <c r="U80" s="29"/>
       <c r="W80" s="34"/>
       <c r="X80" s="29"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
+      <c r="Y80" s="29">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+      <c r="Z80" s="29">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
+      <c r="AA80" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="81" s="11" customFormat="1" spans="1:9">
       <c r="A81" s="11">
@@ -4639,7 +4795,7 @@
       <c r="X91" s="34"/>
       <c r="Y91" s="34"/>
     </row>
-    <row r="92" s="11" customFormat="1" spans="1:9">
+    <row r="92" s="11" customFormat="1" spans="1:27">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -4648,17 +4804,21 @@
       </c>
       <c r="F92" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G92" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I92" s="33"/>
+      <c r="AA92" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="93" s="11" customFormat="1" spans="1:9">
       <c r="A93" s="11">
@@ -4804,6 +4964,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4812,12 +4973,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="P87" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="Y20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T103" sqref="T103"/>
+      <selection pane="bottomRight" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4965,14 +5126,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>254500</v>
+        <v>298000</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>254500</v>
+        <v>298000</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5036,19 +5197,19 @@
       </c>
       <c r="X2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AB2" s="20">
         <f t="shared" si="0"/>
@@ -5060,7 +5221,7 @@
       </c>
       <c r="AD2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="1"/>
@@ -5307,10 +5468,13 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="J10" s="11">
         <v>15000</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>7500</v>
       </c>
       <c r="AB10" s="21"/>
     </row>
@@ -5338,10 +5502,13 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N11" s="11">
         <v>4000</v>
+      </c>
+      <c r="X11" s="19">
+        <v>2000</v>
       </c>
       <c r="AB11" s="21"/>
     </row>
@@ -5511,7 +5678,7 @@
       </c>
       <c r="AB18" s="21"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:28">
+    <row r="19" s="11" customFormat="1" spans="1:30">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -5535,9 +5702,12 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AB19" s="21"/>
+      <c r="AD19" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:28">
       <c r="A20" s="11">
@@ -5738,7 +5908,7 @@
       </c>
       <c r="AB26" s="21"/>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:28">
+    <row r="27" s="11" customFormat="1" spans="1:30">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -5756,9 +5926,12 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AB27" s="21"/>
+      <c r="AD27" s="11">
+        <v>1500</v>
+      </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:28">
       <c r="A28" s="11">
@@ -5976,7 +6149,7 @@
       </c>
       <c r="AB36" s="21"/>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:28">
+    <row r="37" s="11" customFormat="1" spans="1:30">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -5991,9 +6164,12 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AB37" s="21"/>
+      <c r="AD37" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:28">
       <c r="A38" s="11">
@@ -6313,7 +6489,10 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>4500</v>
       </c>
       <c r="AB50" s="21"/>
     </row>
@@ -6607,7 +6786,10 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="Y62" s="19">
+        <v>3000</v>
       </c>
       <c r="AB62" s="21"/>
     </row>
@@ -6657,7 +6839,10 @@
       </c>
       <c r="H64" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>3000</v>
       </c>
       <c r="AB64" s="21"/>
     </row>
@@ -7021,7 +7206,7 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P80" s="11">
         <v>1500</v>
@@ -7031,6 +7216,15 @@
       </c>
       <c r="S80" s="11">
         <v>4500</v>
+      </c>
+      <c r="X80" s="11">
+        <v>3000</v>
+      </c>
+      <c r="Y80" s="11">
+        <v>1500</v>
+      </c>
+      <c r="Z80" s="11">
+        <v>1500</v>
       </c>
       <c r="AB80" s="21"/>
     </row>
@@ -7282,7 +7476,10 @@
       </c>
       <c r="H92" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="Z92" s="11">
+        <v>3000</v>
       </c>
       <c r="AB92" s="21"/>
     </row>
@@ -7413,8 +7610,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="A1:D59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7450,7 +7647,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>27500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7585,7 +7782,7 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7701,7 +7898,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7821,7 +8018,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -871,9 +871,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -894,18 +894,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,18 +918,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -947,38 +949,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,22 +972,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,9 +1016,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,37 +1118,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1166,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,13 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,31 +1268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,43 +1286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,18 +1323,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,11 +1362,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,41 +1403,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,10 +1426,10 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,121 +1441,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,7 +1564,7 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2015,11 +2015,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AD24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AD53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
+      <selection pane="bottomRight" activeCell="AF72" sqref="AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2167,26 +2167,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>306000</v>
+        <v>321000</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>306000</v>
+        <v>321000</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>306000</v>
+        <v>321000</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>306000</v>
+        <v>321000</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="0"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="I57" s="33"/>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:12">
+    <row r="58" s="11" customFormat="1" spans="1:32">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -3841,21 +3841,25 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="I58" s="33"/>
       <c r="L58" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
+      <c r="AF58" s="11">
+        <f>8*1500</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="59" s="11" customFormat="1" spans="1:12">
       <c r="A59" s="11">
@@ -4203,7 +4207,7 @@
       </c>
       <c r="I71" s="33"/>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:14">
+    <row r="72" s="11" customFormat="1" spans="1:32">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4215,20 +4219,24 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="7"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" si="9"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="I72" s="33"/>
       <c r="N72" s="11">
         <f>5*1500</f>
         <v>7500</v>
+      </c>
+      <c r="AF72" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:18">
@@ -4973,12 +4981,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Y20" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD37" sqref="AD37"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5126,14 +5134,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>298000</v>
+        <v>308500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>298000</v>
+        <v>308500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5225,7 +5233,7 @@
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="1"/>
@@ -6668,7 +6676,7 @@
       </c>
       <c r="AB57" s="21"/>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:28">
+    <row r="58" s="11" customFormat="1" spans="1:31">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -6686,12 +6694,15 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="K58" s="11">
         <v>3000</v>
       </c>
       <c r="AB58" s="21"/>
+      <c r="AE58" s="11">
+        <v>7500</v>
+      </c>
     </row>
     <row r="59" s="11" customFormat="1" spans="1:28">
       <c r="A59" s="11">
@@ -6997,7 +7008,7 @@
       </c>
       <c r="AB71" s="21"/>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:28">
+    <row r="72" s="11" customFormat="1" spans="1:31">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7012,12 +7023,15 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="M72" s="11">
         <v>7500</v>
       </c>
       <c r="AB72" s="21"/>
+      <c r="AE72" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:28">
       <c r="A73" s="11">
@@ -7610,8 +7624,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7647,7 +7661,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>8000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8473,7 +8487,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="59" spans="1:4">

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -305,6 +305,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Sold 1 mobile to Kedar
+for Rs 1650</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U88" authorId="0">
       <text>
         <r>
@@ -871,11 +894,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -895,8 +918,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,14 +1001,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -934,15 +1009,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,95 +1061,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1124,19 +1147,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,37 +1249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,73 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,11 +1346,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,50 +1413,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,13 +1446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,127 +1464,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2015,11 +2038,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AD53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AK74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF72" sqref="AF72"/>
+      <selection pane="bottomRight" activeCell="AL80" sqref="AL80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2167,26 +2190,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>321000</v>
+        <v>325500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>321000</v>
+        <v>325500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>321000</v>
+        <v>325500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>321000</v>
+        <v>325500</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2302,11 +2325,11 @@
       </c>
       <c r="AK2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AL2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AM2" s="10">
         <f t="shared" si="0"/>
@@ -4424,7 +4447,7 @@
       </c>
       <c r="I79" s="33"/>
     </row>
-    <row r="80" s="11" customFormat="1" spans="1:27">
+    <row r="80" s="11" customFormat="1" spans="1:38">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -4434,15 +4457,15 @@
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="9"/>
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="29"/>
@@ -4477,6 +4500,10 @@
         <v>1500</v>
       </c>
       <c r="AA80" s="11">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
+      <c r="AL80" s="11">
         <f>1*1500</f>
         <v>1500</v>
       </c>
@@ -4803,7 +4830,7 @@
       <c r="X91" s="34"/>
       <c r="Y91" s="34"/>
     </row>
-    <row r="92" s="11" customFormat="1" spans="1:27">
+    <row r="92" s="11" customFormat="1" spans="1:37">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -4812,18 +4839,22 @@
       </c>
       <c r="F92" s="10">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G92" s="10">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I92" s="33"/>
       <c r="AA92" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+      <c r="AK92" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
@@ -4982,11 +5013,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AF79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="AK80" sqref="AK80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5134,14 +5165,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>308500</v>
+        <v>313000</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>308500</v>
+        <v>313000</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5253,11 +5284,11 @@
       </c>
       <c r="AJ2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AK2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AL2" s="10">
         <f t="shared" si="1"/>
@@ -7208,7 +7239,7 @@
       </c>
       <c r="AB79" s="21"/>
     </row>
-    <row r="80" s="11" customFormat="1" spans="1:28">
+    <row r="80" s="11" customFormat="1" spans="1:37">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -7220,7 +7251,7 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="P80" s="11">
         <v>1500</v>
@@ -7241,6 +7272,9 @@
         <v>1500</v>
       </c>
       <c r="AB80" s="21"/>
+      <c r="AK80" s="11">
+        <v>1500</v>
+      </c>
     </row>
     <row r="81" s="11" customFormat="1" spans="1:28">
       <c r="A81" s="11">
@@ -7472,7 +7506,7 @@
       </c>
       <c r="AB91" s="21"/>
     </row>
-    <row r="92" s="11" customFormat="1" spans="1:28">
+    <row r="92" s="11" customFormat="1" spans="1:36">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -7490,12 +7524,15 @@
       </c>
       <c r="H92" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Z92" s="11">
         <v>3000</v>
       </c>
       <c r="AB92" s="21"/>
+      <c r="AJ92" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="93" s="11" customFormat="1" spans="1:28">
       <c r="A93" s="11">
@@ -7625,7 +7662,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D59" sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>

--- a/JioMobile/March2021Mobile.xlsx
+++ b/JioMobile/March2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -894,11 +894,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -917,29 +917,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -954,8 +931,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,39 +949,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,16 +964,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,8 +1001,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,25 +1048,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1141,13 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1159,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,25 +1207,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,73 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,37 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,47 +1353,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,28 +1391,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,13 +1446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1464,130 +1464,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1693,7 +1693,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1706,7 +1706,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,11 +2038,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AK74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AK57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL80" sqref="AL80"/>
+      <selection pane="bottomRight" activeCell="AN62" sqref="AN62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2190,26 +2190,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>325500</v>
+        <v>331500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>325500</v>
+        <v>331500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>325500</v>
+        <v>331500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>325500</v>
+        <v>331500</v>
       </c>
       <c r="I2" s="32">
         <f>SUM(I3:I121)</f>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="AN2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:11">
@@ -3884,7 +3884,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="59" s="11" customFormat="1" spans="1:12">
+    <row r="59" s="11" customFormat="1" spans="1:40">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -3896,21 +3896,25 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I59" s="33"/>
       <c r="L59" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
+      <c r="AN59" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="60" s="11" customFormat="1" spans="1:12">
       <c r="A60" s="11">
@@ -3968,7 +3972,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:26">
+    <row r="62" s="11" customFormat="1" spans="1:40">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -3981,18 +3985,22 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="33"/>
       <c r="Z62" s="11">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
+      <c r="AN62" s="11">
         <f>2*1500</f>
         <v>3000</v>
       </c>
@@ -5012,12 +5020,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AF79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AF55" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK80" sqref="AK80"/>
+      <selection pane="bottomRight" activeCell="AM59" sqref="AM59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5165,14 +5173,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>313000</v>
+        <v>321500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>313000</v>
+        <v>321500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5296,7 +5304,7 @@
       </c>
       <c r="AM2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:28">
@@ -6707,7 +6715,7 @@
       </c>
       <c r="AB57" s="21"/>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:31">
+    <row r="58" s="11" customFormat="1" spans="1:39">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -6725,7 +6733,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="K58" s="11">
         <v>3000</v>
@@ -6734,8 +6742,11 @@
       <c r="AE58" s="11">
         <v>7500</v>
       </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:28">
+      <c r="AM58" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:39">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -6756,9 +6767,12 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AB59" s="21"/>
+      <c r="AM59" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="60" s="11" customFormat="1" spans="1:28">
       <c r="A60" s="11">
@@ -6804,7 +6818,7 @@
       </c>
       <c r="AB61" s="21"/>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:28">
+    <row r="62" s="11" customFormat="1" spans="1:39">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -6828,12 +6842,15 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Y62" s="19">
         <v>3000</v>
       </c>
       <c r="AB62" s="21"/>
+      <c r="AM62" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:28">
       <c r="A63" s="11">
@@ -7661,8 +7678,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="A1:D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7698,7 +7715,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8524,7 +8541,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
